--- a/rod_blk_output.xlsx
+++ b/rod_blk_output.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23230" uniqueCount="1013">
   <si>
-    <t>Column</t>
+    <t>Matched Inspection Column</t>
   </si>
   <si>
     <t>Database Average</t>
@@ -39,6 +39,477 @@
     <t>Date</t>
   </si>
   <si>
+    <t>Rod_Blk_Tesla_1_Average_Data</t>
+  </si>
+  <si>
+    <t>Rod_Blk_Tesla_2_Average_Data</t>
+  </si>
+  <si>
+    <t>Rod_Blk_Tesla_3_Average_Data</t>
+  </si>
+  <si>
+    <t>Rod_Blk_Tesla_4_Average_Data</t>
+  </si>
+  <si>
+    <t>Rod_Blk_Tesla_1_Minimum_Data</t>
+  </si>
+  <si>
+    <t>Rod_Blk_Tesla_2_Minimum_Data</t>
+  </si>
+  <si>
+    <t>Rod_Blk_Tesla_3_Minimum_Data</t>
+  </si>
+  <si>
+    <t>Rod_Blk_Tesla_4_Minimum_Data</t>
+  </si>
+  <si>
+    <t>Rod_Blk_Tesla_1_Max_Data</t>
+  </si>
+  <si>
+    <t>Rod_Blk_Tesla_2_Max_Data</t>
+  </si>
+  <si>
+    <t>Rod_Blk_Tesla_3_Max_Data</t>
+  </si>
+  <si>
+    <t>Rod_Blk_Tesla_4_Max_Data</t>
+  </si>
+  <si>
+    <t>Inspection_1_Average</t>
+  </si>
+  <si>
+    <t>Inspection_2_Average</t>
+  </si>
+  <si>
+    <t>Inspection_3_Average</t>
+  </si>
+  <si>
+    <t>Inspection_4_Average</t>
+  </si>
+  <si>
+    <t>Inspection_5_Average</t>
+  </si>
+  <si>
+    <t>Inspection_6_Average</t>
+  </si>
+  <si>
+    <t>Inspection_1_Minimum</t>
+  </si>
+  <si>
+    <t>Inspection_2_Minimum</t>
+  </si>
+  <si>
+    <t>Inspection_3_Minimum</t>
+  </si>
+  <si>
+    <t>Inspection_4_Minimum</t>
+  </si>
+  <si>
+    <t>Inspection_5_Minimum</t>
+  </si>
+  <si>
+    <t>Inspection_6_Minimum</t>
+  </si>
+  <si>
+    <t>Inspection_1_Maximum</t>
+  </si>
+  <si>
+    <t>Inspection_2_Maximum</t>
+  </si>
+  <si>
+    <t>Inspection_3_Maximum</t>
+  </si>
+  <si>
+    <t>Inspection_4_Maximum</t>
+  </si>
+  <si>
+    <t>Inspection_5_Maximum</t>
+  </si>
+  <si>
+    <t>Inspection_6_Maximum</t>
+  </si>
+  <si>
+    <t>Rod_Blk</t>
+  </si>
+  <si>
+    <t>2025/08/20</t>
+  </si>
+  <si>
+    <t>ID_checksheet</t>
+  </si>
+  <si>
+    <t>Prod_Date</t>
+  </si>
+  <si>
+    <t>Material_Lot_Number</t>
+  </si>
+  <si>
+    <t>QR_CODE</t>
+  </si>
+  <si>
+    <t>PRODUCE_QTY</t>
+  </si>
+  <si>
+    <t>JO_NUMBER</t>
+  </si>
+  <si>
+    <t>ID_inspection</t>
+  </si>
+  <si>
+    <t>Lot_Number</t>
+  </si>
+  <si>
+    <t>Inspection_8_Breaking_Test</t>
+  </si>
+  <si>
+    <t>20250807-B-9</t>
+  </si>
+  <si>
+    <t>20250807-B</t>
+  </si>
+  <si>
+    <t>02112517A-306W</t>
+  </si>
+  <si>
+    <t>20250212P</t>
+  </si>
+  <si>
+    <t>84.0</t>
+  </si>
+  <si>
+    <t>3J73795128-0</t>
+  </si>
+  <si>
+    <t>116.0</t>
+  </si>
+  <si>
+    <t>118.6</t>
+  </si>
+  <si>
+    <t>122.0</t>
+  </si>
+  <si>
+    <t>117.0</t>
+  </si>
+  <si>
+    <t>119.6</t>
+  </si>
+  <si>
+    <t>124.0</t>
+  </si>
+  <si>
+    <t>120.2</t>
+  </si>
+  <si>
+    <t>123.0</t>
+  </si>
+  <si>
+    <t>119.0</t>
+  </si>
+  <si>
+    <t>121.0</t>
+  </si>
+  <si>
+    <t>02112517A-301Q 2025-02-12</t>
+  </si>
+  <si>
+    <t>02112517A-301Q</t>
+  </si>
+  <si>
+    <t>2025-02-12</t>
+  </si>
+  <si>
+    <t>74.02</t>
+  </si>
+  <si>
+    <t>74.03</t>
+  </si>
+  <si>
+    <t>74.04</t>
+  </si>
+  <si>
+    <t>13.50</t>
+  </si>
+  <si>
+    <t>13.55</t>
+  </si>
+  <si>
+    <t>13.61</t>
+  </si>
+  <si>
+    <t>13.59</t>
+  </si>
+  <si>
+    <t>13.62</t>
+  </si>
+  <si>
+    <t>7.97</t>
+  </si>
+  <si>
+    <t>7.98</t>
+  </si>
+  <si>
+    <t>7.99</t>
+  </si>
+  <si>
+    <t>176.20</t>
+  </si>
+  <si>
+    <t>176.32</t>
+  </si>
+  <si>
+    <t>176.40</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>MODEL_CODE</t>
+  </si>
+  <si>
+    <t>PROCESS_S_N</t>
+  </si>
+  <si>
+    <t>S_N</t>
+  </si>
+  <si>
+    <t>PASS_NG</t>
+  </si>
+  <si>
+    <t>VOLTAGE_MAX_V</t>
+  </si>
+  <si>
+    <t>WATTAGE_MAX_W</t>
+  </si>
+  <si>
+    <t>CLOSED_PRESSURE_MAX_kPa</t>
+  </si>
+  <si>
+    <t>VOLTAGE_Middle_V</t>
+  </si>
+  <si>
+    <t>WATTAGE_Middle_W</t>
+  </si>
+  <si>
+    <t>AMPERAGE_Middle_A</t>
+  </si>
+  <si>
+    <t>CLOSED_PRESSURE_Middle_kPa</t>
+  </si>
+  <si>
+    <t>VOLTAGE_MIN_V</t>
+  </si>
+  <si>
+    <t>WATTAGE_MIN_W</t>
+  </si>
+  <si>
+    <t>CLOSED_PRESSURE_MIN_kPa</t>
+  </si>
+  <si>
+    <t>Process_1_S_N</t>
+  </si>
+  <si>
+    <t>Process_1_ID</t>
+  </si>
+  <si>
+    <t>Process_1_NAME</t>
+  </si>
+  <si>
+    <t>Process_1_Em2p</t>
+  </si>
+  <si>
+    <t>Process_1_Em2p_Lot_No</t>
+  </si>
+  <si>
+    <t>Process_1_Em2p_Inspection_3_Average_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Em2p_Inspection_4_Average_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Em2p_Inspection_5_Average_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Em2p_Inspection_10_Average_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Em2p_Inspection_3_Minimum_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Em2p_Inspection_4_Minimum_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Em2p_Inspection_5_Minimum_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Em2p_Inspection_3_Maximum_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Em2p_Inspection_4_Maximum_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Em2p_Inspection_5_Maximum_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Em3p</t>
+  </si>
+  <si>
+    <t>Process_1_Em3p_Lot_No</t>
+  </si>
+  <si>
+    <t>Process_1_Em3p_Inspection_3_Average_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Em3p_Inspection_4_Average_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Em3p_Inspection_5_Average_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Em3p_Inspection_10_Average_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Em3p_Inspection_3_Minimum_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Em3p_Inspection_4_Minimum_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Em3p_Inspection_5_Minimum_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Em3p_Inspection_3_Maximum_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Em3p_Inspection_4_Maximum_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Em3p_Inspection_5_Maximum_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Harness</t>
+  </si>
+  <si>
+    <t>Process_1_Harness_Lot_No</t>
+  </si>
+  <si>
+    <t>Process_1_Frame</t>
+  </si>
+  <si>
+    <t>Process_1_Frame_Lot_No</t>
+  </si>
+  <si>
+    <t>Process_1_Frame_Inspection_1_Average_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Frame_Inspection_2_Average_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Frame_Inspection_3_Average_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Frame_Inspection_4_Average_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Frame_Inspection_5_Average_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Frame_Inspection_6_Average_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Frame_Inspection_7_Average_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Frame_Inspection_1_Minimum_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Frame_Inspection_2_Minimum_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Frame_Inspection_3_Minimum_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Frame_Inspection_4_Minimum_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Frame_Inspection_5_Minimum_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Frame_Inspection_6_Minimum_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Frame_Inspection_7_Minimum_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Frame_Inspection_1_Maximum_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Frame_Inspection_2_Maximum_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Frame_Inspection_3_Maximum_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Frame_Inspection_4_Maximum_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Frame_Inspection_5_Maximum_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Frame_Inspection_6_Maximum_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Frame_Inspection_7_Maximum_Data</t>
+  </si>
+  <si>
+    <t>Process_1_Bushing</t>
+  </si>
+  <si>
+    <t>Process_1_Bushing_Lot_No</t>
+  </si>
+  <si>
+    <t>Process_1_ST</t>
+  </si>
+  <si>
+    <t>Process_1_Actual_Time</t>
+  </si>
+  <si>
+    <t>Process_1_NG_Cause</t>
+  </si>
+  <si>
+    <t>Process_1_Repaired_Action</t>
+  </si>
+  <si>
+    <t>Process_2_S_N</t>
+  </si>
+  <si>
+    <t>Process_2_ID</t>
+  </si>
+  <si>
+    <t>Process_2_NAME</t>
+  </si>
+  <si>
+    <t>Process_2_M4x40_Screw</t>
+  </si>
+  <si>
+    <t>Process_2_M4x40_Screw_Lot_No</t>
+  </si>
+  <si>
+    <t>Process_2_Rod_Blk</t>
+  </si>
+  <si>
+    <t>Process_2_Rod_Blk_Lot_No</t>
+  </si>
+  <si>
     <t>Process_2_Rod_Blk_Tesla_1_Average_Data</t>
   </si>
   <si>
@@ -93,6 +564,15 @@
     <t>Process_2_Rod_Blk_Inspection_6_Average_Data</t>
   </si>
   <si>
+    <t>Process_2_Rod_Blk_Inspection_7_Average_Data</t>
+  </si>
+  <si>
+    <t>Process_2_Rod_Blk_Inspection_8_Average_Data</t>
+  </si>
+  <si>
+    <t>Process_2_Rod_Blk_Inspection_9_Average_Data</t>
+  </si>
+  <si>
     <t>Process_2_Rod_Blk_Inspection_1_Minimum_Data</t>
   </si>
   <si>
@@ -111,6 +591,15 @@
     <t>Process_2_Rod_Blk_Inspection_6_Minimum_Data</t>
   </si>
   <si>
+    <t>Process_2_Rod_Blk_Inspection_7_Minimum_Data</t>
+  </si>
+  <si>
+    <t>Process_2_Rod_Blk_Inspection_8_Minimum_Data</t>
+  </si>
+  <si>
+    <t>Process_2_Rod_Blk_Inspection_9_Minimum_Data</t>
+  </si>
+  <si>
     <t>Process_2_Rod_Blk_Inspection_1_Maximum_Data</t>
   </si>
   <si>
@@ -127,495 +616,6 @@
   </si>
   <si>
     <t>Process_2_Rod_Blk_Inspection_6_Maximum_Data</t>
-  </si>
-  <si>
-    <t>Rod_Blk</t>
-  </si>
-  <si>
-    <t>2025/08/20</t>
-  </si>
-  <si>
-    <t>ID_checksheet</t>
-  </si>
-  <si>
-    <t>Prod_Date</t>
-  </si>
-  <si>
-    <t>Material_Lot_Number</t>
-  </si>
-  <si>
-    <t>QR_CODE</t>
-  </si>
-  <si>
-    <t>PRODUCE_QTY</t>
-  </si>
-  <si>
-    <t>JO_NUMBER</t>
-  </si>
-  <si>
-    <t>Rod_Blk_Tesla_1_Minimum_Data</t>
-  </si>
-  <si>
-    <t>Rod_Blk_Tesla_1_Average_Data</t>
-  </si>
-  <si>
-    <t>Rod_Blk_Tesla_1_Max_Data</t>
-  </si>
-  <si>
-    <t>Rod_Blk_Tesla_2_Minimum_Data</t>
-  </si>
-  <si>
-    <t>Rod_Blk_Tesla_2_Average_Data</t>
-  </si>
-  <si>
-    <t>Rod_Blk_Tesla_2_Max_Data</t>
-  </si>
-  <si>
-    <t>Rod_Blk_Tesla_3_Minimum_Data</t>
-  </si>
-  <si>
-    <t>Rod_Blk_Tesla_3_Average_Data</t>
-  </si>
-  <si>
-    <t>Rod_Blk_Tesla_3_Max_Data</t>
-  </si>
-  <si>
-    <t>Rod_Blk_Tesla_4_Minimum_Data</t>
-  </si>
-  <si>
-    <t>Rod_Blk_Tesla_4_Average_Data</t>
-  </si>
-  <si>
-    <t>Rod_Blk_Tesla_4_Max_Data</t>
-  </si>
-  <si>
-    <t>ID_inspection</t>
-  </si>
-  <si>
-    <t>Lot_Number</t>
-  </si>
-  <si>
-    <t>Inspection_1_Minimum</t>
-  </si>
-  <si>
-    <t>Inspection_1_Average</t>
-  </si>
-  <si>
-    <t>Inspection_1_Maximum</t>
-  </si>
-  <si>
-    <t>Inspection_2_Minimum</t>
-  </si>
-  <si>
-    <t>Inspection_2_Average</t>
-  </si>
-  <si>
-    <t>Inspection_2_Maximum</t>
-  </si>
-  <si>
-    <t>Inspection_3_Minimum</t>
-  </si>
-  <si>
-    <t>Inspection_3_Average</t>
-  </si>
-  <si>
-    <t>Inspection_3_Maximum</t>
-  </si>
-  <si>
-    <t>Inspection_4_Minimum</t>
-  </si>
-  <si>
-    <t>Inspection_4_Average</t>
-  </si>
-  <si>
-    <t>Inspection_4_Maximum</t>
-  </si>
-  <si>
-    <t>Inspection_5_Minimum</t>
-  </si>
-  <si>
-    <t>Inspection_5_Average</t>
-  </si>
-  <si>
-    <t>Inspection_5_Maximum</t>
-  </si>
-  <si>
-    <t>Inspection_6_Minimum</t>
-  </si>
-  <si>
-    <t>Inspection_6_Average</t>
-  </si>
-  <si>
-    <t>Inspection_6_Maximum</t>
-  </si>
-  <si>
-    <t>Inspection_8_Breaking_Test</t>
-  </si>
-  <si>
-    <t>20250807-B-9</t>
-  </si>
-  <si>
-    <t>20250807-B</t>
-  </si>
-  <si>
-    <t>02112517A-306W</t>
-  </si>
-  <si>
-    <t>20250212P</t>
-  </si>
-  <si>
-    <t>84.0</t>
-  </si>
-  <si>
-    <t>3J73795128-0</t>
-  </si>
-  <si>
-    <t>116.0</t>
-  </si>
-  <si>
-    <t>118.6</t>
-  </si>
-  <si>
-    <t>122.0</t>
-  </si>
-  <si>
-    <t>117.0</t>
-  </si>
-  <si>
-    <t>119.6</t>
-  </si>
-  <si>
-    <t>124.0</t>
-  </si>
-  <si>
-    <t>120.2</t>
-  </si>
-  <si>
-    <t>123.0</t>
-  </si>
-  <si>
-    <t>119.0</t>
-  </si>
-  <si>
-    <t>121.0</t>
-  </si>
-  <si>
-    <t>02112517A-301Q 2025-02-12</t>
-  </si>
-  <si>
-    <t>02112517A-301Q</t>
-  </si>
-  <si>
-    <t>2025-02-12</t>
-  </si>
-  <si>
-    <t>74.02</t>
-  </si>
-  <si>
-    <t>74.03</t>
-  </si>
-  <si>
-    <t>74.04</t>
-  </si>
-  <si>
-    <t>13.50</t>
-  </si>
-  <si>
-    <t>13.55</t>
-  </si>
-  <si>
-    <t>13.61</t>
-  </si>
-  <si>
-    <t>13.59</t>
-  </si>
-  <si>
-    <t>13.62</t>
-  </si>
-  <si>
-    <t>7.97</t>
-  </si>
-  <si>
-    <t>7.98</t>
-  </si>
-  <si>
-    <t>7.99</t>
-  </si>
-  <si>
-    <t>176.20</t>
-  </si>
-  <si>
-    <t>176.32</t>
-  </si>
-  <si>
-    <t>176.40</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>DATETIME</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <t>MODEL_CODE</t>
-  </si>
-  <si>
-    <t>PROCESS_S_N</t>
-  </si>
-  <si>
-    <t>S_N</t>
-  </si>
-  <si>
-    <t>PASS_NG</t>
-  </si>
-  <si>
-    <t>VOLTAGE_MAX_V</t>
-  </si>
-  <si>
-    <t>WATTAGE_MAX_W</t>
-  </si>
-  <si>
-    <t>CLOSED_PRESSURE_MAX_kPa</t>
-  </si>
-  <si>
-    <t>VOLTAGE_Middle_V</t>
-  </si>
-  <si>
-    <t>WATTAGE_Middle_W</t>
-  </si>
-  <si>
-    <t>AMPERAGE_Middle_A</t>
-  </si>
-  <si>
-    <t>CLOSED_PRESSURE_Middle_kPa</t>
-  </si>
-  <si>
-    <t>VOLTAGE_MIN_V</t>
-  </si>
-  <si>
-    <t>WATTAGE_MIN_W</t>
-  </si>
-  <si>
-    <t>CLOSED_PRESSURE_MIN_kPa</t>
-  </si>
-  <si>
-    <t>Process_1_S_N</t>
-  </si>
-  <si>
-    <t>Process_1_ID</t>
-  </si>
-  <si>
-    <t>Process_1_NAME</t>
-  </si>
-  <si>
-    <t>Process_1_Em2p</t>
-  </si>
-  <si>
-    <t>Process_1_Em2p_Lot_No</t>
-  </si>
-  <si>
-    <t>Process_1_Em2p_Inspection_3_Average_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Em2p_Inspection_4_Average_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Em2p_Inspection_5_Average_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Em2p_Inspection_10_Average_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Em2p_Inspection_3_Minimum_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Em2p_Inspection_4_Minimum_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Em2p_Inspection_5_Minimum_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Em2p_Inspection_3_Maximum_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Em2p_Inspection_4_Maximum_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Em2p_Inspection_5_Maximum_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Em3p</t>
-  </si>
-  <si>
-    <t>Process_1_Em3p_Lot_No</t>
-  </si>
-  <si>
-    <t>Process_1_Em3p_Inspection_3_Average_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Em3p_Inspection_4_Average_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Em3p_Inspection_5_Average_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Em3p_Inspection_10_Average_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Em3p_Inspection_3_Minimum_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Em3p_Inspection_4_Minimum_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Em3p_Inspection_5_Minimum_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Em3p_Inspection_3_Maximum_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Em3p_Inspection_4_Maximum_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Em3p_Inspection_5_Maximum_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Harness</t>
-  </si>
-  <si>
-    <t>Process_1_Harness_Lot_No</t>
-  </si>
-  <si>
-    <t>Process_1_Frame</t>
-  </si>
-  <si>
-    <t>Process_1_Frame_Lot_No</t>
-  </si>
-  <si>
-    <t>Process_1_Frame_Inspection_1_Average_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Frame_Inspection_2_Average_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Frame_Inspection_3_Average_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Frame_Inspection_4_Average_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Frame_Inspection_5_Average_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Frame_Inspection_6_Average_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Frame_Inspection_7_Average_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Frame_Inspection_1_Minimum_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Frame_Inspection_2_Minimum_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Frame_Inspection_3_Minimum_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Frame_Inspection_4_Minimum_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Frame_Inspection_5_Minimum_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Frame_Inspection_6_Minimum_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Frame_Inspection_7_Minimum_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Frame_Inspection_1_Maximum_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Frame_Inspection_2_Maximum_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Frame_Inspection_3_Maximum_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Frame_Inspection_4_Maximum_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Frame_Inspection_5_Maximum_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Frame_Inspection_6_Maximum_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Frame_Inspection_7_Maximum_Data</t>
-  </si>
-  <si>
-    <t>Process_1_Bushing</t>
-  </si>
-  <si>
-    <t>Process_1_Bushing_Lot_No</t>
-  </si>
-  <si>
-    <t>Process_1_ST</t>
-  </si>
-  <si>
-    <t>Process_1_Actual_Time</t>
-  </si>
-  <si>
-    <t>Process_1_NG_Cause</t>
-  </si>
-  <si>
-    <t>Process_1_Repaired_Action</t>
-  </si>
-  <si>
-    <t>Process_2_S_N</t>
-  </si>
-  <si>
-    <t>Process_2_ID</t>
-  </si>
-  <si>
-    <t>Process_2_NAME</t>
-  </si>
-  <si>
-    <t>Process_2_M4x40_Screw</t>
-  </si>
-  <si>
-    <t>Process_2_M4x40_Screw_Lot_No</t>
-  </si>
-  <si>
-    <t>Process_2_Rod_Blk</t>
-  </si>
-  <si>
-    <t>Process_2_Rod_Blk_Lot_No</t>
-  </si>
-  <si>
-    <t>Process_2_Rod_Blk_Inspection_7_Average_Data</t>
-  </si>
-  <si>
-    <t>Process_2_Rod_Blk_Inspection_8_Average_Data</t>
-  </si>
-  <si>
-    <t>Process_2_Rod_Blk_Inspection_9_Average_Data</t>
-  </si>
-  <si>
-    <t>Process_2_Rod_Blk_Inspection_7_Minimum_Data</t>
-  </si>
-  <si>
-    <t>Process_2_Rod_Blk_Inspection_8_Minimum_Data</t>
-  </si>
-  <si>
-    <t>Process_2_Rod_Blk_Inspection_9_Minimum_Data</t>
   </si>
   <si>
     <t>Process_2_Rod_Blk_Inspection_7_Maximum_Data</t>
@@ -4171,230 +4171,230 @@
         <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:40">
       <c r="S2" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="T2" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="U2" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="V2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="W2" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="X2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="Y2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="Z2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="AA2" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="AB2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="AC2" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="AD2" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="AE2" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="AF2" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="AG2" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="AJ2" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AK2" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AL2" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="AM2" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AN2" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:40">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="N3" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="Q3" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="R3" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4412,358 +4412,358 @@
   <sheetData>
     <row r="1" spans="1:253">
       <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="CE1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="CW1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CZ1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="DO1" s="1" t="s">
         <v>200</v>
@@ -5428,34 +5428,34 @@
         <v>756</v>
       </c>
       <c r="CH2" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI2" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ2" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK2" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL2" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM2" t="s">
         <v>757</v>
       </c>
       <c r="CN2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO2" t="s">
         <v>761</v>
       </c>
       <c r="CP2" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ2" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR2" t="s">
         <v>763</v>
@@ -5515,7 +5515,7 @@
         <v>764</v>
       </c>
       <c r="DK2" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL2" t="s">
         <v>765</v>
@@ -6123,34 +6123,34 @@
         <v>756</v>
       </c>
       <c r="CH3" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI3" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ3" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK3" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL3" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM3" t="s">
         <v>757</v>
       </c>
       <c r="CN3" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO3" t="s">
         <v>761</v>
       </c>
       <c r="CP3" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ3" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR3" t="s">
         <v>763</v>
@@ -6210,7 +6210,7 @@
         <v>764</v>
       </c>
       <c r="DK3" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL3" t="s">
         <v>765</v>
@@ -6818,34 +6818,34 @@
         <v>756</v>
       </c>
       <c r="CH4" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI4" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ4" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK4" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL4" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM4" t="s">
         <v>757</v>
       </c>
       <c r="CN4" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO4" t="s">
         <v>761</v>
       </c>
       <c r="CP4" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ4" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR4" t="s">
         <v>763</v>
@@ -6905,7 +6905,7 @@
         <v>764</v>
       </c>
       <c r="DK4" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL4" t="s">
         <v>765</v>
@@ -7513,34 +7513,34 @@
         <v>756</v>
       </c>
       <c r="CH5" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI5" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ5" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK5" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL5" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM5" t="s">
         <v>757</v>
       </c>
       <c r="CN5" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO5" t="s">
         <v>761</v>
       </c>
       <c r="CP5" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ5" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR5" t="s">
         <v>763</v>
@@ -7600,7 +7600,7 @@
         <v>764</v>
       </c>
       <c r="DK5" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL5" t="s">
         <v>765</v>
@@ -8208,34 +8208,34 @@
         <v>756</v>
       </c>
       <c r="CH6" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI6" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ6" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK6" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL6" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM6" t="s">
         <v>757</v>
       </c>
       <c r="CN6" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO6" t="s">
         <v>761</v>
       </c>
       <c r="CP6" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ6" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR6" t="s">
         <v>763</v>
@@ -8295,7 +8295,7 @@
         <v>764</v>
       </c>
       <c r="DK6" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL6" t="s">
         <v>765</v>
@@ -8903,34 +8903,34 @@
         <v>756</v>
       </c>
       <c r="CH7" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI7" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ7" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK7" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL7" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM7" t="s">
         <v>757</v>
       </c>
       <c r="CN7" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO7" t="s">
         <v>761</v>
       </c>
       <c r="CP7" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ7" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR7" t="s">
         <v>763</v>
@@ -8990,7 +8990,7 @@
         <v>764</v>
       </c>
       <c r="DK7" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL7" t="s">
         <v>765</v>
@@ -9598,34 +9598,34 @@
         <v>756</v>
       </c>
       <c r="CH8" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI8" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ8" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK8" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL8" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM8" t="s">
         <v>757</v>
       </c>
       <c r="CN8" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO8" t="s">
         <v>761</v>
       </c>
       <c r="CP8" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ8" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR8" t="s">
         <v>763</v>
@@ -9685,7 +9685,7 @@
         <v>764</v>
       </c>
       <c r="DK8" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL8" t="s">
         <v>765</v>
@@ -10293,34 +10293,34 @@
         <v>756</v>
       </c>
       <c r="CH9" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI9" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ9" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK9" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL9" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM9" t="s">
         <v>757</v>
       </c>
       <c r="CN9" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO9" t="s">
         <v>761</v>
       </c>
       <c r="CP9" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ9" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR9" t="s">
         <v>763</v>
@@ -10380,7 +10380,7 @@
         <v>764</v>
       </c>
       <c r="DK9" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL9" t="s">
         <v>765</v>
@@ -10581,7 +10581,7 @@
         <v>895</v>
       </c>
       <c r="GL9" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="GM9" t="s">
         <v>747</v>
@@ -10988,34 +10988,34 @@
         <v>756</v>
       </c>
       <c r="CH10" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI10" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ10" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK10" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL10" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM10" t="s">
         <v>757</v>
       </c>
       <c r="CN10" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO10" t="s">
         <v>761</v>
       </c>
       <c r="CP10" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ10" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR10" t="s">
         <v>763</v>
@@ -11075,7 +11075,7 @@
         <v>764</v>
       </c>
       <c r="DK10" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL10" t="s">
         <v>765</v>
@@ -11683,34 +11683,34 @@
         <v>756</v>
       </c>
       <c r="CH11" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI11" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ11" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK11" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL11" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM11" t="s">
         <v>757</v>
       </c>
       <c r="CN11" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO11" t="s">
         <v>761</v>
       </c>
       <c r="CP11" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ11" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR11" t="s">
         <v>763</v>
@@ -11770,7 +11770,7 @@
         <v>764</v>
       </c>
       <c r="DK11" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL11" t="s">
         <v>765</v>
@@ -12378,34 +12378,34 @@
         <v>756</v>
       </c>
       <c r="CH12" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI12" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ12" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK12" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL12" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM12" t="s">
         <v>757</v>
       </c>
       <c r="CN12" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO12" t="s">
         <v>761</v>
       </c>
       <c r="CP12" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ12" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR12" t="s">
         <v>763</v>
@@ -12465,7 +12465,7 @@
         <v>764</v>
       </c>
       <c r="DK12" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL12" t="s">
         <v>765</v>
@@ -13073,34 +13073,34 @@
         <v>756</v>
       </c>
       <c r="CH13" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI13" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ13" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK13" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL13" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM13" t="s">
         <v>757</v>
       </c>
       <c r="CN13" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO13" t="s">
         <v>761</v>
       </c>
       <c r="CP13" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ13" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR13" t="s">
         <v>763</v>
@@ -13160,7 +13160,7 @@
         <v>764</v>
       </c>
       <c r="DK13" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL13" t="s">
         <v>765</v>
@@ -13768,34 +13768,34 @@
         <v>756</v>
       </c>
       <c r="CH14" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI14" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ14" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK14" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL14" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM14" t="s">
         <v>757</v>
       </c>
       <c r="CN14" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO14" t="s">
         <v>761</v>
       </c>
       <c r="CP14" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ14" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR14" t="s">
         <v>763</v>
@@ -13855,7 +13855,7 @@
         <v>764</v>
       </c>
       <c r="DK14" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL14" t="s">
         <v>765</v>
@@ -14463,34 +14463,34 @@
         <v>756</v>
       </c>
       <c r="CH15" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI15" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ15" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK15" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL15" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM15" t="s">
         <v>757</v>
       </c>
       <c r="CN15" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO15" t="s">
         <v>761</v>
       </c>
       <c r="CP15" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ15" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR15" t="s">
         <v>763</v>
@@ -14550,7 +14550,7 @@
         <v>764</v>
       </c>
       <c r="DK15" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL15" t="s">
         <v>765</v>
@@ -15158,34 +15158,34 @@
         <v>756</v>
       </c>
       <c r="CH16" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI16" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ16" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK16" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL16" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM16" t="s">
         <v>757</v>
       </c>
       <c r="CN16" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO16" t="s">
         <v>761</v>
       </c>
       <c r="CP16" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ16" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR16" t="s">
         <v>763</v>
@@ -15245,7 +15245,7 @@
         <v>764</v>
       </c>
       <c r="DK16" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL16" t="s">
         <v>765</v>
@@ -15853,34 +15853,34 @@
         <v>756</v>
       </c>
       <c r="CH17" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI17" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ17" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK17" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL17" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM17" t="s">
         <v>757</v>
       </c>
       <c r="CN17" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO17" t="s">
         <v>761</v>
       </c>
       <c r="CP17" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ17" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR17" t="s">
         <v>763</v>
@@ -15940,7 +15940,7 @@
         <v>764</v>
       </c>
       <c r="DK17" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL17" t="s">
         <v>765</v>
@@ -16548,34 +16548,34 @@
         <v>756</v>
       </c>
       <c r="CH18" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI18" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ18" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK18" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL18" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM18" t="s">
         <v>757</v>
       </c>
       <c r="CN18" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO18" t="s">
         <v>761</v>
       </c>
       <c r="CP18" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ18" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR18" t="s">
         <v>763</v>
@@ -16635,7 +16635,7 @@
         <v>764</v>
       </c>
       <c r="DK18" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL18" t="s">
         <v>765</v>
@@ -17243,34 +17243,34 @@
         <v>756</v>
       </c>
       <c r="CH19" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI19" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ19" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK19" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL19" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM19" t="s">
         <v>757</v>
       </c>
       <c r="CN19" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO19" t="s">
         <v>761</v>
       </c>
       <c r="CP19" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ19" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR19" t="s">
         <v>763</v>
@@ -17330,7 +17330,7 @@
         <v>764</v>
       </c>
       <c r="DK19" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL19" t="s">
         <v>765</v>
@@ -17938,34 +17938,34 @@
         <v>756</v>
       </c>
       <c r="CH20" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI20" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ20" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK20" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL20" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM20" t="s">
         <v>757</v>
       </c>
       <c r="CN20" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO20" t="s">
         <v>761</v>
       </c>
       <c r="CP20" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ20" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR20" t="s">
         <v>763</v>
@@ -18025,7 +18025,7 @@
         <v>764</v>
       </c>
       <c r="DK20" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL20" t="s">
         <v>765</v>
@@ -18633,34 +18633,34 @@
         <v>756</v>
       </c>
       <c r="CH21" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI21" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ21" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK21" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL21" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM21" t="s">
         <v>757</v>
       </c>
       <c r="CN21" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO21" t="s">
         <v>761</v>
       </c>
       <c r="CP21" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ21" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR21" t="s">
         <v>763</v>
@@ -18720,7 +18720,7 @@
         <v>764</v>
       </c>
       <c r="DK21" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL21" t="s">
         <v>765</v>
@@ -19328,34 +19328,34 @@
         <v>756</v>
       </c>
       <c r="CH22" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI22" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ22" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK22" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL22" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM22" t="s">
         <v>757</v>
       </c>
       <c r="CN22" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO22" t="s">
         <v>761</v>
       </c>
       <c r="CP22" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ22" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR22" t="s">
         <v>763</v>
@@ -19415,7 +19415,7 @@
         <v>764</v>
       </c>
       <c r="DK22" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL22" t="s">
         <v>765</v>
@@ -19685,7 +19685,7 @@
         <v>962</v>
       </c>
       <c r="HS22" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="HT22" t="s">
         <v>747</v>
@@ -20023,34 +20023,34 @@
         <v>756</v>
       </c>
       <c r="CH23" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI23" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ23" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK23" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL23" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM23" t="s">
         <v>757</v>
       </c>
       <c r="CN23" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO23" t="s">
         <v>761</v>
       </c>
       <c r="CP23" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ23" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR23" t="s">
         <v>763</v>
@@ -20110,7 +20110,7 @@
         <v>764</v>
       </c>
       <c r="DK23" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL23" t="s">
         <v>765</v>
@@ -20380,7 +20380,7 @@
         <v>962</v>
       </c>
       <c r="HS23" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="HT23" t="s">
         <v>747</v>
@@ -20718,34 +20718,34 @@
         <v>756</v>
       </c>
       <c r="CH24" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI24" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ24" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK24" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL24" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM24" t="s">
         <v>757</v>
       </c>
       <c r="CN24" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO24" t="s">
         <v>761</v>
       </c>
       <c r="CP24" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ24" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR24" t="s">
         <v>763</v>
@@ -20805,7 +20805,7 @@
         <v>764</v>
       </c>
       <c r="DK24" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL24" t="s">
         <v>765</v>
@@ -21006,7 +21006,7 @@
         <v>895</v>
       </c>
       <c r="GL24" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="GM24" t="s">
         <v>747</v>
@@ -21413,34 +21413,34 @@
         <v>756</v>
       </c>
       <c r="CH25" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI25" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ25" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK25" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL25" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM25" t="s">
         <v>757</v>
       </c>
       <c r="CN25" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO25" t="s">
         <v>761</v>
       </c>
       <c r="CP25" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ25" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR25" t="s">
         <v>763</v>
@@ -21500,7 +21500,7 @@
         <v>764</v>
       </c>
       <c r="DK25" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL25" t="s">
         <v>765</v>
@@ -22108,34 +22108,34 @@
         <v>756</v>
       </c>
       <c r="CH26" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI26" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ26" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK26" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL26" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM26" t="s">
         <v>757</v>
       </c>
       <c r="CN26" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO26" t="s">
         <v>761</v>
       </c>
       <c r="CP26" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ26" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR26" t="s">
         <v>763</v>
@@ -22195,7 +22195,7 @@
         <v>764</v>
       </c>
       <c r="DK26" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL26" t="s">
         <v>765</v>
@@ -22803,34 +22803,34 @@
         <v>756</v>
       </c>
       <c r="CH27" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI27" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ27" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK27" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL27" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM27" t="s">
         <v>757</v>
       </c>
       <c r="CN27" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO27" t="s">
         <v>761</v>
       </c>
       <c r="CP27" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ27" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR27" t="s">
         <v>763</v>
@@ -22890,7 +22890,7 @@
         <v>764</v>
       </c>
       <c r="DK27" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL27" t="s">
         <v>765</v>
@@ -23091,7 +23091,7 @@
         <v>895</v>
       </c>
       <c r="GL27" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="GM27" t="s">
         <v>747</v>
@@ -23498,34 +23498,34 @@
         <v>756</v>
       </c>
       <c r="CH28" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI28" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ28" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK28" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL28" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM28" t="s">
         <v>757</v>
       </c>
       <c r="CN28" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO28" t="s">
         <v>761</v>
       </c>
       <c r="CP28" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ28" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR28" t="s">
         <v>763</v>
@@ -23585,7 +23585,7 @@
         <v>764</v>
       </c>
       <c r="DK28" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL28" t="s">
         <v>765</v>
@@ -23855,7 +23855,7 @@
         <v>962</v>
       </c>
       <c r="HS28" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="HT28" t="s">
         <v>747</v>
@@ -24193,34 +24193,34 @@
         <v>756</v>
       </c>
       <c r="CH29" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI29" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ29" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK29" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL29" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM29" t="s">
         <v>757</v>
       </c>
       <c r="CN29" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO29" t="s">
         <v>761</v>
       </c>
       <c r="CP29" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ29" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR29" t="s">
         <v>763</v>
@@ -24280,7 +24280,7 @@
         <v>764</v>
       </c>
       <c r="DK29" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL29" t="s">
         <v>765</v>
@@ -24481,7 +24481,7 @@
         <v>895</v>
       </c>
       <c r="GL29" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="GM29" t="s">
         <v>747</v>
@@ -24888,34 +24888,34 @@
         <v>756</v>
       </c>
       <c r="CH30" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI30" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ30" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK30" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL30" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM30" t="s">
         <v>757</v>
       </c>
       <c r="CN30" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO30" t="s">
         <v>761</v>
       </c>
       <c r="CP30" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ30" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR30" t="s">
         <v>763</v>
@@ -24975,7 +24975,7 @@
         <v>764</v>
       </c>
       <c r="DK30" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL30" t="s">
         <v>765</v>
@@ -25583,34 +25583,34 @@
         <v>756</v>
       </c>
       <c r="CH31" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI31" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ31" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK31" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL31" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM31" t="s">
         <v>757</v>
       </c>
       <c r="CN31" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO31" t="s">
         <v>761</v>
       </c>
       <c r="CP31" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ31" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR31" t="s">
         <v>763</v>
@@ -25670,7 +25670,7 @@
         <v>764</v>
       </c>
       <c r="DK31" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL31" t="s">
         <v>765</v>
@@ -26278,34 +26278,34 @@
         <v>756</v>
       </c>
       <c r="CH32" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI32" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ32" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK32" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL32" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM32" t="s">
         <v>757</v>
       </c>
       <c r="CN32" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO32" t="s">
         <v>761</v>
       </c>
       <c r="CP32" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ32" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR32" t="s">
         <v>763</v>
@@ -26365,7 +26365,7 @@
         <v>764</v>
       </c>
       <c r="DK32" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL32" t="s">
         <v>765</v>
@@ -26973,34 +26973,34 @@
         <v>756</v>
       </c>
       <c r="CH33" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI33" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ33" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK33" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL33" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM33" t="s">
         <v>757</v>
       </c>
       <c r="CN33" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO33" t="s">
         <v>761</v>
       </c>
       <c r="CP33" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ33" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR33" t="s">
         <v>763</v>
@@ -27060,7 +27060,7 @@
         <v>764</v>
       </c>
       <c r="DK33" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL33" t="s">
         <v>765</v>
@@ -27668,34 +27668,34 @@
         <v>756</v>
       </c>
       <c r="CH34" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI34" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ34" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK34" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL34" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM34" t="s">
         <v>757</v>
       </c>
       <c r="CN34" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO34" t="s">
         <v>761</v>
       </c>
       <c r="CP34" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ34" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR34" t="s">
         <v>763</v>
@@ -27755,7 +27755,7 @@
         <v>764</v>
       </c>
       <c r="DK34" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL34" t="s">
         <v>765</v>
@@ -28363,34 +28363,34 @@
         <v>756</v>
       </c>
       <c r="CH35" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI35" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ35" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK35" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL35" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM35" t="s">
         <v>757</v>
       </c>
       <c r="CN35" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO35" t="s">
         <v>761</v>
       </c>
       <c r="CP35" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ35" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR35" t="s">
         <v>763</v>
@@ -28450,7 +28450,7 @@
         <v>764</v>
       </c>
       <c r="DK35" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL35" t="s">
         <v>765</v>
@@ -29058,34 +29058,34 @@
         <v>756</v>
       </c>
       <c r="CH36" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI36" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ36" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK36" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL36" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM36" t="s">
         <v>757</v>
       </c>
       <c r="CN36" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO36" t="s">
         <v>761</v>
       </c>
       <c r="CP36" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ36" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR36" t="s">
         <v>763</v>
@@ -29145,7 +29145,7 @@
         <v>764</v>
       </c>
       <c r="DK36" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL36" t="s">
         <v>765</v>
@@ -29753,34 +29753,34 @@
         <v>756</v>
       </c>
       <c r="CH37" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI37" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ37" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK37" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL37" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM37" t="s">
         <v>757</v>
       </c>
       <c r="CN37" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO37" t="s">
         <v>761</v>
       </c>
       <c r="CP37" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ37" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR37" t="s">
         <v>763</v>
@@ -29840,7 +29840,7 @@
         <v>764</v>
       </c>
       <c r="DK37" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL37" t="s">
         <v>765</v>
@@ -30448,34 +30448,34 @@
         <v>756</v>
       </c>
       <c r="CH38" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI38" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ38" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK38" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL38" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM38" t="s">
         <v>757</v>
       </c>
       <c r="CN38" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO38" t="s">
         <v>761</v>
       </c>
       <c r="CP38" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ38" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR38" t="s">
         <v>763</v>
@@ -30535,7 +30535,7 @@
         <v>764</v>
       </c>
       <c r="DK38" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL38" t="s">
         <v>765</v>
@@ -30736,7 +30736,7 @@
         <v>895</v>
       </c>
       <c r="GL38" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="GM38" t="s">
         <v>747</v>
@@ -31143,34 +31143,34 @@
         <v>756</v>
       </c>
       <c r="CH39" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI39" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ39" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK39" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL39" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM39" t="s">
         <v>757</v>
       </c>
       <c r="CN39" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO39" t="s">
         <v>761</v>
       </c>
       <c r="CP39" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ39" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR39" t="s">
         <v>763</v>
@@ -31230,7 +31230,7 @@
         <v>764</v>
       </c>
       <c r="DK39" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL39" t="s">
         <v>765</v>
@@ -31838,34 +31838,34 @@
         <v>756</v>
       </c>
       <c r="CH40" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI40" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ40" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK40" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL40" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM40" t="s">
         <v>757</v>
       </c>
       <c r="CN40" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO40" t="s">
         <v>761</v>
       </c>
       <c r="CP40" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ40" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR40" t="s">
         <v>763</v>
@@ -31925,7 +31925,7 @@
         <v>764</v>
       </c>
       <c r="DK40" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL40" t="s">
         <v>765</v>
@@ -32533,34 +32533,34 @@
         <v>756</v>
       </c>
       <c r="CH41" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI41" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ41" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK41" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL41" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM41" t="s">
         <v>757</v>
       </c>
       <c r="CN41" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO41" t="s">
         <v>761</v>
       </c>
       <c r="CP41" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ41" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR41" t="s">
         <v>763</v>
@@ -32620,7 +32620,7 @@
         <v>764</v>
       </c>
       <c r="DK41" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL41" t="s">
         <v>765</v>
@@ -33228,34 +33228,34 @@
         <v>756</v>
       </c>
       <c r="CH42" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI42" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ42" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK42" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL42" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM42" t="s">
         <v>757</v>
       </c>
       <c r="CN42" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO42" t="s">
         <v>761</v>
       </c>
       <c r="CP42" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ42" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR42" t="s">
         <v>763</v>
@@ -33315,7 +33315,7 @@
         <v>764</v>
       </c>
       <c r="DK42" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL42" t="s">
         <v>765</v>
@@ -33923,34 +33923,34 @@
         <v>756</v>
       </c>
       <c r="CH43" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI43" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ43" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK43" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL43" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM43" t="s">
         <v>757</v>
       </c>
       <c r="CN43" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO43" t="s">
         <v>761</v>
       </c>
       <c r="CP43" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ43" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR43" t="s">
         <v>763</v>
@@ -34010,7 +34010,7 @@
         <v>764</v>
       </c>
       <c r="DK43" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL43" t="s">
         <v>765</v>
@@ -34618,34 +34618,34 @@
         <v>756</v>
       </c>
       <c r="CH44" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI44" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ44" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK44" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL44" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM44" t="s">
         <v>757</v>
       </c>
       <c r="CN44" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO44" t="s">
         <v>761</v>
       </c>
       <c r="CP44" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ44" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR44" t="s">
         <v>763</v>
@@ -34705,7 +34705,7 @@
         <v>764</v>
       </c>
       <c r="DK44" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL44" t="s">
         <v>765</v>
@@ -34975,7 +34975,7 @@
         <v>962</v>
       </c>
       <c r="HS44" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="HT44" t="s">
         <v>747</v>
@@ -35313,34 +35313,34 @@
         <v>756</v>
       </c>
       <c r="CH45" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI45" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ45" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK45" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL45" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM45" t="s">
         <v>757</v>
       </c>
       <c r="CN45" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO45" t="s">
         <v>761</v>
       </c>
       <c r="CP45" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ45" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR45" t="s">
         <v>763</v>
@@ -35400,7 +35400,7 @@
         <v>764</v>
       </c>
       <c r="DK45" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL45" t="s">
         <v>765</v>
@@ -36008,34 +36008,34 @@
         <v>756</v>
       </c>
       <c r="CH46" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI46" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ46" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK46" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL46" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM46" t="s">
         <v>757</v>
       </c>
       <c r="CN46" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO46" t="s">
         <v>761</v>
       </c>
       <c r="CP46" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ46" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR46" t="s">
         <v>763</v>
@@ -36095,7 +36095,7 @@
         <v>764</v>
       </c>
       <c r="DK46" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL46" t="s">
         <v>765</v>
@@ -36703,34 +36703,34 @@
         <v>756</v>
       </c>
       <c r="CH47" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI47" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ47" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK47" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL47" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM47" t="s">
         <v>757</v>
       </c>
       <c r="CN47" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO47" t="s">
         <v>761</v>
       </c>
       <c r="CP47" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ47" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR47" t="s">
         <v>763</v>
@@ -36790,7 +36790,7 @@
         <v>764</v>
       </c>
       <c r="DK47" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL47" t="s">
         <v>765</v>
@@ -36991,7 +36991,7 @@
         <v>895</v>
       </c>
       <c r="GL47" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="GM47" t="s">
         <v>747</v>
@@ -37398,34 +37398,34 @@
         <v>756</v>
       </c>
       <c r="CH48" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI48" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ48" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK48" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL48" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM48" t="s">
         <v>757</v>
       </c>
       <c r="CN48" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO48" t="s">
         <v>761</v>
       </c>
       <c r="CP48" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ48" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR48" t="s">
         <v>763</v>
@@ -37485,7 +37485,7 @@
         <v>764</v>
       </c>
       <c r="DK48" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL48" t="s">
         <v>765</v>
@@ -38093,34 +38093,34 @@
         <v>756</v>
       </c>
       <c r="CH49" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI49" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ49" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK49" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL49" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM49" t="s">
         <v>757</v>
       </c>
       <c r="CN49" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO49" t="s">
         <v>761</v>
       </c>
       <c r="CP49" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ49" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR49" t="s">
         <v>763</v>
@@ -38180,7 +38180,7 @@
         <v>764</v>
       </c>
       <c r="DK49" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL49" t="s">
         <v>765</v>
@@ -38788,34 +38788,34 @@
         <v>756</v>
       </c>
       <c r="CH50" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI50" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ50" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK50" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL50" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM50" t="s">
         <v>757</v>
       </c>
       <c r="CN50" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO50" t="s">
         <v>761</v>
       </c>
       <c r="CP50" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ50" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR50" t="s">
         <v>763</v>
@@ -38875,7 +38875,7 @@
         <v>764</v>
       </c>
       <c r="DK50" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL50" t="s">
         <v>765</v>
@@ -39483,34 +39483,34 @@
         <v>756</v>
       </c>
       <c r="CH51" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI51" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ51" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK51" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL51" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM51" t="s">
         <v>757</v>
       </c>
       <c r="CN51" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO51" t="s">
         <v>761</v>
       </c>
       <c r="CP51" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ51" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR51" t="s">
         <v>763</v>
@@ -39570,7 +39570,7 @@
         <v>764</v>
       </c>
       <c r="DK51" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL51" t="s">
         <v>765</v>
@@ -40178,34 +40178,34 @@
         <v>756</v>
       </c>
       <c r="CH52" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI52" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ52" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK52" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL52" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM52" t="s">
         <v>757</v>
       </c>
       <c r="CN52" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO52" t="s">
         <v>761</v>
       </c>
       <c r="CP52" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ52" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR52" t="s">
         <v>763</v>
@@ -40265,7 +40265,7 @@
         <v>764</v>
       </c>
       <c r="DK52" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL52" t="s">
         <v>765</v>
@@ -40873,34 +40873,34 @@
         <v>756</v>
       </c>
       <c r="CH53" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI53" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ53" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK53" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL53" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM53" t="s">
         <v>757</v>
       </c>
       <c r="CN53" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO53" t="s">
         <v>761</v>
       </c>
       <c r="CP53" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ53" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR53" t="s">
         <v>763</v>
@@ -40960,7 +40960,7 @@
         <v>764</v>
       </c>
       <c r="DK53" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL53" t="s">
         <v>765</v>
@@ -41568,34 +41568,34 @@
         <v>756</v>
       </c>
       <c r="CH54" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI54" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ54" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK54" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL54" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM54" t="s">
         <v>757</v>
       </c>
       <c r="CN54" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO54" t="s">
         <v>761</v>
       </c>
       <c r="CP54" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ54" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR54" t="s">
         <v>763</v>
@@ -41655,7 +41655,7 @@
         <v>764</v>
       </c>
       <c r="DK54" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL54" t="s">
         <v>765</v>
@@ -42263,34 +42263,34 @@
         <v>756</v>
       </c>
       <c r="CH55" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI55" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ55" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK55" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL55" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM55" t="s">
         <v>757</v>
       </c>
       <c r="CN55" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO55" t="s">
         <v>761</v>
       </c>
       <c r="CP55" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ55" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR55" t="s">
         <v>763</v>
@@ -42350,7 +42350,7 @@
         <v>764</v>
       </c>
       <c r="DK55" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL55" t="s">
         <v>765</v>
@@ -42551,7 +42551,7 @@
         <v>895</v>
       </c>
       <c r="GL55" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="GM55" t="s">
         <v>747</v>
@@ -42958,34 +42958,34 @@
         <v>756</v>
       </c>
       <c r="CH56" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI56" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ56" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK56" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL56" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM56" t="s">
         <v>757</v>
       </c>
       <c r="CN56" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO56" t="s">
         <v>761</v>
       </c>
       <c r="CP56" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ56" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR56" t="s">
         <v>763</v>
@@ -43045,7 +43045,7 @@
         <v>764</v>
       </c>
       <c r="DK56" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL56" t="s">
         <v>765</v>
@@ -43653,34 +43653,34 @@
         <v>756</v>
       </c>
       <c r="CH57" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI57" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ57" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK57" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL57" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM57" t="s">
         <v>757</v>
       </c>
       <c r="CN57" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO57" t="s">
         <v>761</v>
       </c>
       <c r="CP57" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ57" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR57" t="s">
         <v>763</v>
@@ -43740,7 +43740,7 @@
         <v>764</v>
       </c>
       <c r="DK57" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL57" t="s">
         <v>765</v>
@@ -44348,34 +44348,34 @@
         <v>756</v>
       </c>
       <c r="CH58" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI58" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ58" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK58" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL58" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM58" t="s">
         <v>757</v>
       </c>
       <c r="CN58" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO58" t="s">
         <v>761</v>
       </c>
       <c r="CP58" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ58" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR58" t="s">
         <v>763</v>
@@ -44435,7 +44435,7 @@
         <v>764</v>
       </c>
       <c r="DK58" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL58" t="s">
         <v>765</v>
@@ -45043,34 +45043,34 @@
         <v>756</v>
       </c>
       <c r="CH59" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI59" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ59" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK59" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL59" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM59" t="s">
         <v>757</v>
       </c>
       <c r="CN59" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO59" t="s">
         <v>761</v>
       </c>
       <c r="CP59" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ59" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR59" t="s">
         <v>763</v>
@@ -45130,7 +45130,7 @@
         <v>764</v>
       </c>
       <c r="DK59" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL59" t="s">
         <v>765</v>
@@ -45738,34 +45738,34 @@
         <v>756</v>
       </c>
       <c r="CH60" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI60" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ60" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK60" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL60" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM60" t="s">
         <v>757</v>
       </c>
       <c r="CN60" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO60" t="s">
         <v>761</v>
       </c>
       <c r="CP60" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ60" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR60" t="s">
         <v>763</v>
@@ -45825,7 +45825,7 @@
         <v>764</v>
       </c>
       <c r="DK60" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL60" t="s">
         <v>765</v>
@@ -46433,34 +46433,34 @@
         <v>756</v>
       </c>
       <c r="CH61" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI61" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ61" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK61" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL61" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM61" t="s">
         <v>757</v>
       </c>
       <c r="CN61" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO61" t="s">
         <v>761</v>
       </c>
       <c r="CP61" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ61" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR61" t="s">
         <v>763</v>
@@ -46520,7 +46520,7 @@
         <v>764</v>
       </c>
       <c r="DK61" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL61" t="s">
         <v>765</v>
@@ -47128,34 +47128,34 @@
         <v>756</v>
       </c>
       <c r="CH62" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI62" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ62" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK62" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL62" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM62" t="s">
         <v>757</v>
       </c>
       <c r="CN62" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO62" t="s">
         <v>761</v>
       </c>
       <c r="CP62" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ62" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR62" t="s">
         <v>763</v>
@@ -47215,7 +47215,7 @@
         <v>764</v>
       </c>
       <c r="DK62" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL62" t="s">
         <v>765</v>
@@ -47416,7 +47416,7 @@
         <v>895</v>
       </c>
       <c r="GL62" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="GM62" t="s">
         <v>747</v>
@@ -47823,34 +47823,34 @@
         <v>756</v>
       </c>
       <c r="CH63" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI63" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ63" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK63" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL63" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM63" t="s">
         <v>757</v>
       </c>
       <c r="CN63" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO63" t="s">
         <v>761</v>
       </c>
       <c r="CP63" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ63" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR63" t="s">
         <v>763</v>
@@ -47910,7 +47910,7 @@
         <v>764</v>
       </c>
       <c r="DK63" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL63" t="s">
         <v>765</v>
@@ -48518,34 +48518,34 @@
         <v>756</v>
       </c>
       <c r="CH64" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI64" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ64" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK64" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL64" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM64" t="s">
         <v>757</v>
       </c>
       <c r="CN64" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO64" t="s">
         <v>761</v>
       </c>
       <c r="CP64" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ64" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR64" t="s">
         <v>763</v>
@@ -48605,7 +48605,7 @@
         <v>764</v>
       </c>
       <c r="DK64" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL64" t="s">
         <v>765</v>
@@ -49213,34 +49213,34 @@
         <v>756</v>
       </c>
       <c r="CH65" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI65" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ65" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK65" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL65" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM65" t="s">
         <v>757</v>
       </c>
       <c r="CN65" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO65" t="s">
         <v>761</v>
       </c>
       <c r="CP65" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ65" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR65" t="s">
         <v>763</v>
@@ -49300,7 +49300,7 @@
         <v>764</v>
       </c>
       <c r="DK65" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL65" t="s">
         <v>765</v>
@@ -49908,34 +49908,34 @@
         <v>756</v>
       </c>
       <c r="CH66" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI66" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ66" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK66" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL66" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM66" t="s">
         <v>757</v>
       </c>
       <c r="CN66" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO66" t="s">
         <v>761</v>
       </c>
       <c r="CP66" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ66" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR66" t="s">
         <v>763</v>
@@ -49995,7 +49995,7 @@
         <v>764</v>
       </c>
       <c r="DK66" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL66" t="s">
         <v>765</v>
@@ -50603,34 +50603,34 @@
         <v>756</v>
       </c>
       <c r="CH67" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI67" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ67" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK67" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL67" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM67" t="s">
         <v>757</v>
       </c>
       <c r="CN67" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO67" t="s">
         <v>761</v>
       </c>
       <c r="CP67" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ67" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR67" t="s">
         <v>763</v>
@@ -50690,7 +50690,7 @@
         <v>764</v>
       </c>
       <c r="DK67" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL67" t="s">
         <v>765</v>
@@ -51298,34 +51298,34 @@
         <v>756</v>
       </c>
       <c r="CH68" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="CI68" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CJ68" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CK68" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CL68" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="CM68" t="s">
         <v>757</v>
       </c>
       <c r="CN68" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CO68" t="s">
         <v>761</v>
       </c>
       <c r="CP68" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CQ68" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="CR68" t="s">
         <v>763</v>
@@ -51385,7 +51385,7 @@
         <v>764</v>
       </c>
       <c r="DK68" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="DL68" t="s">
         <v>765</v>
@@ -51987,7 +51987,7 @@
         <v>756</v>
       </c>
       <c r="CF69" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CG69" t="s">
         <v>758</v>
@@ -51996,25 +51996,25 @@
         <v>759</v>
       </c>
       <c r="CI69" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CJ69" t="s">
         <v>760</v>
       </c>
       <c r="CK69" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CL69" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CM69" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CN69" t="s">
         <v>761</v>
       </c>
       <c r="CO69" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="CP69" t="s">
         <v>761</v>
@@ -52026,7 +52026,7 @@
         <v>764</v>
       </c>
       <c r="CS69" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="CT69" t="s">
         <v>766</v>
@@ -52047,7 +52047,7 @@
         <v>769</v>
       </c>
       <c r="CZ69" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="DA69" t="s">
         <v>774</v>
@@ -52682,7 +52682,7 @@
         <v>756</v>
       </c>
       <c r="CF70" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CG70" t="s">
         <v>758</v>
@@ -52691,25 +52691,25 @@
         <v>759</v>
       </c>
       <c r="CI70" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CJ70" t="s">
         <v>760</v>
       </c>
       <c r="CK70" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CL70" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CM70" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CN70" t="s">
         <v>761</v>
       </c>
       <c r="CO70" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="CP70" t="s">
         <v>761</v>
@@ -52721,7 +52721,7 @@
         <v>764</v>
       </c>
       <c r="CS70" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="CT70" t="s">
         <v>766</v>
@@ -52742,7 +52742,7 @@
         <v>769</v>
       </c>
       <c r="CZ70" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="DA70" t="s">
         <v>774</v>
@@ -53377,7 +53377,7 @@
         <v>756</v>
       </c>
       <c r="CF71" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CG71" t="s">
         <v>758</v>
@@ -53386,25 +53386,25 @@
         <v>759</v>
       </c>
       <c r="CI71" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CJ71" t="s">
         <v>760</v>
       </c>
       <c r="CK71" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CL71" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CM71" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CN71" t="s">
         <v>761</v>
       </c>
       <c r="CO71" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="CP71" t="s">
         <v>761</v>
@@ -53416,7 +53416,7 @@
         <v>764</v>
       </c>
       <c r="CS71" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="CT71" t="s">
         <v>766</v>
@@ -53437,7 +53437,7 @@
         <v>769</v>
       </c>
       <c r="CZ71" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="DA71" t="s">
         <v>774</v>
@@ -54072,7 +54072,7 @@
         <v>756</v>
       </c>
       <c r="CF72" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CG72" t="s">
         <v>758</v>
@@ -54081,25 +54081,25 @@
         <v>759</v>
       </c>
       <c r="CI72" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CJ72" t="s">
         <v>760</v>
       </c>
       <c r="CK72" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CL72" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CM72" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CN72" t="s">
         <v>761</v>
       </c>
       <c r="CO72" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="CP72" t="s">
         <v>761</v>
@@ -54111,7 +54111,7 @@
         <v>764</v>
       </c>
       <c r="CS72" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="CT72" t="s">
         <v>766</v>
@@ -54132,7 +54132,7 @@
         <v>769</v>
       </c>
       <c r="CZ72" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="DA72" t="s">
         <v>774</v>
@@ -54435,7 +54435,7 @@
         <v>962</v>
       </c>
       <c r="HS72" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="HT72" t="s">
         <v>747</v>
@@ -54767,7 +54767,7 @@
         <v>756</v>
       </c>
       <c r="CF73" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CG73" t="s">
         <v>758</v>
@@ -54776,25 +54776,25 @@
         <v>759</v>
       </c>
       <c r="CI73" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CJ73" t="s">
         <v>760</v>
       </c>
       <c r="CK73" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CL73" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CM73" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CN73" t="s">
         <v>761</v>
       </c>
       <c r="CO73" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="CP73" t="s">
         <v>761</v>
@@ -54806,7 +54806,7 @@
         <v>764</v>
       </c>
       <c r="CS73" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="CT73" t="s">
         <v>766</v>
@@ -54827,7 +54827,7 @@
         <v>769</v>
       </c>
       <c r="CZ73" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="DA73" t="s">
         <v>774</v>
@@ -55130,7 +55130,7 @@
         <v>962</v>
       </c>
       <c r="HS73" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="HT73" t="s">
         <v>747</v>
@@ -55462,7 +55462,7 @@
         <v>756</v>
       </c>
       <c r="CF74" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CG74" t="s">
         <v>758</v>
@@ -55471,25 +55471,25 @@
         <v>759</v>
       </c>
       <c r="CI74" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CJ74" t="s">
         <v>760</v>
       </c>
       <c r="CK74" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CL74" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CM74" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CN74" t="s">
         <v>761</v>
       </c>
       <c r="CO74" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="CP74" t="s">
         <v>761</v>
@@ -55501,7 +55501,7 @@
         <v>764</v>
       </c>
       <c r="CS74" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="CT74" t="s">
         <v>766</v>
@@ -55522,7 +55522,7 @@
         <v>769</v>
       </c>
       <c r="CZ74" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="DA74" t="s">
         <v>774</v>
@@ -56157,7 +56157,7 @@
         <v>756</v>
       </c>
       <c r="CF75" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CG75" t="s">
         <v>758</v>
@@ -56166,25 +56166,25 @@
         <v>759</v>
       </c>
       <c r="CI75" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CJ75" t="s">
         <v>760</v>
       </c>
       <c r="CK75" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CL75" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CM75" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CN75" t="s">
         <v>761</v>
       </c>
       <c r="CO75" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="CP75" t="s">
         <v>761</v>
@@ -56196,7 +56196,7 @@
         <v>764</v>
       </c>
       <c r="CS75" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="CT75" t="s">
         <v>766</v>
@@ -56217,7 +56217,7 @@
         <v>769</v>
       </c>
       <c r="CZ75" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="DA75" t="s">
         <v>774</v>
@@ -56852,7 +56852,7 @@
         <v>756</v>
       </c>
       <c r="CF76" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CG76" t="s">
         <v>758</v>
@@ -56861,25 +56861,25 @@
         <v>759</v>
       </c>
       <c r="CI76" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CJ76" t="s">
         <v>760</v>
       </c>
       <c r="CK76" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CL76" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CM76" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CN76" t="s">
         <v>761</v>
       </c>
       <c r="CO76" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="CP76" t="s">
         <v>761</v>
@@ -56891,7 +56891,7 @@
         <v>764</v>
       </c>
       <c r="CS76" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="CT76" t="s">
         <v>766</v>
@@ -56912,7 +56912,7 @@
         <v>769</v>
       </c>
       <c r="CZ76" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="DA76" t="s">
         <v>774</v>
@@ -57215,7 +57215,7 @@
         <v>962</v>
       </c>
       <c r="HS76" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="HT76" t="s">
         <v>747</v>
@@ -57547,7 +57547,7 @@
         <v>756</v>
       </c>
       <c r="CF77" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CG77" t="s">
         <v>758</v>
@@ -57556,25 +57556,25 @@
         <v>759</v>
       </c>
       <c r="CI77" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CJ77" t="s">
         <v>760</v>
       </c>
       <c r="CK77" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CL77" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CM77" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CN77" t="s">
         <v>761</v>
       </c>
       <c r="CO77" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="CP77" t="s">
         <v>761</v>
@@ -57586,7 +57586,7 @@
         <v>764</v>
       </c>
       <c r="CS77" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="CT77" t="s">
         <v>766</v>
@@ -57607,7 +57607,7 @@
         <v>769</v>
       </c>
       <c r="CZ77" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="DA77" t="s">
         <v>774</v>
@@ -58242,7 +58242,7 @@
         <v>756</v>
       </c>
       <c r="CF78" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CG78" t="s">
         <v>758</v>
@@ -58251,25 +58251,25 @@
         <v>759</v>
       </c>
       <c r="CI78" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CJ78" t="s">
         <v>760</v>
       </c>
       <c r="CK78" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CL78" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CM78" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CN78" t="s">
         <v>761</v>
       </c>
       <c r="CO78" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="CP78" t="s">
         <v>761</v>
@@ -58281,7 +58281,7 @@
         <v>764</v>
       </c>
       <c r="CS78" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="CT78" t="s">
         <v>766</v>
@@ -58302,7 +58302,7 @@
         <v>769</v>
       </c>
       <c r="CZ78" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="DA78" t="s">
         <v>774</v>
@@ -58937,7 +58937,7 @@
         <v>756</v>
       </c>
       <c r="CF79" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CG79" t="s">
         <v>758</v>
@@ -58946,25 +58946,25 @@
         <v>759</v>
       </c>
       <c r="CI79" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CJ79" t="s">
         <v>760</v>
       </c>
       <c r="CK79" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CL79" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CM79" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CN79" t="s">
         <v>761</v>
       </c>
       <c r="CO79" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="CP79" t="s">
         <v>761</v>
@@ -58976,7 +58976,7 @@
         <v>764</v>
       </c>
       <c r="CS79" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="CT79" t="s">
         <v>766</v>
@@ -58997,7 +58997,7 @@
         <v>769</v>
       </c>
       <c r="CZ79" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="DA79" t="s">
         <v>774</v>
@@ -59231,7 +59231,7 @@
         <v>895</v>
       </c>
       <c r="GL79" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="GM79" t="s">
         <v>747</v>
@@ -59632,7 +59632,7 @@
         <v>756</v>
       </c>
       <c r="CF80" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CG80" t="s">
         <v>758</v>
@@ -59641,25 +59641,25 @@
         <v>759</v>
       </c>
       <c r="CI80" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CJ80" t="s">
         <v>760</v>
       </c>
       <c r="CK80" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CL80" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CM80" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CN80" t="s">
         <v>761</v>
       </c>
       <c r="CO80" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="CP80" t="s">
         <v>761</v>
@@ -59671,7 +59671,7 @@
         <v>764</v>
       </c>
       <c r="CS80" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="CT80" t="s">
         <v>766</v>
@@ -59692,7 +59692,7 @@
         <v>769</v>
       </c>
       <c r="CZ80" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="DA80" t="s">
         <v>774</v>
@@ -60327,7 +60327,7 @@
         <v>756</v>
       </c>
       <c r="CF81" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CG81" t="s">
         <v>758</v>
@@ -60336,25 +60336,25 @@
         <v>759</v>
       </c>
       <c r="CI81" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CJ81" t="s">
         <v>760</v>
       </c>
       <c r="CK81" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CL81" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CM81" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CN81" t="s">
         <v>761</v>
       </c>
       <c r="CO81" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="CP81" t="s">
         <v>761</v>
@@ -60366,7 +60366,7 @@
         <v>764</v>
       </c>
       <c r="CS81" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="CT81" t="s">
         <v>766</v>
@@ -60387,7 +60387,7 @@
         <v>769</v>
       </c>
       <c r="CZ81" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="DA81" t="s">
         <v>774</v>
@@ -61022,7 +61022,7 @@
         <v>756</v>
       </c>
       <c r="CF82" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CG82" t="s">
         <v>758</v>
@@ -61031,25 +61031,25 @@
         <v>759</v>
       </c>
       <c r="CI82" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CJ82" t="s">
         <v>760</v>
       </c>
       <c r="CK82" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CL82" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CM82" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CN82" t="s">
         <v>761</v>
       </c>
       <c r="CO82" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="CP82" t="s">
         <v>761</v>
@@ -61061,7 +61061,7 @@
         <v>764</v>
       </c>
       <c r="CS82" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="CT82" t="s">
         <v>766</v>
@@ -61082,7 +61082,7 @@
         <v>769</v>
       </c>
       <c r="CZ82" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="DA82" t="s">
         <v>774</v>
@@ -61717,7 +61717,7 @@
         <v>756</v>
       </c>
       <c r="CF83" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CG83" t="s">
         <v>758</v>
@@ -61726,25 +61726,25 @@
         <v>759</v>
       </c>
       <c r="CI83" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CJ83" t="s">
         <v>760</v>
       </c>
       <c r="CK83" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CL83" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CM83" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CN83" t="s">
         <v>761</v>
       </c>
       <c r="CO83" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="CP83" t="s">
         <v>761</v>
@@ -61756,7 +61756,7 @@
         <v>764</v>
       </c>
       <c r="CS83" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="CT83" t="s">
         <v>766</v>
@@ -61777,7 +61777,7 @@
         <v>769</v>
       </c>
       <c r="CZ83" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="DA83" t="s">
         <v>774</v>
@@ -62412,7 +62412,7 @@
         <v>756</v>
       </c>
       <c r="CF84" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CG84" t="s">
         <v>758</v>
@@ -62421,25 +62421,25 @@
         <v>759</v>
       </c>
       <c r="CI84" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CJ84" t="s">
         <v>760</v>
       </c>
       <c r="CK84" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CL84" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CM84" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CN84" t="s">
         <v>761</v>
       </c>
       <c r="CO84" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="CP84" t="s">
         <v>761</v>
@@ -62451,7 +62451,7 @@
         <v>764</v>
       </c>
       <c r="CS84" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="CT84" t="s">
         <v>766</v>
@@ -62472,7 +62472,7 @@
         <v>769</v>
       </c>
       <c r="CZ84" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="DA84" t="s">
         <v>774</v>
@@ -63107,7 +63107,7 @@
         <v>756</v>
       </c>
       <c r="CF85" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CG85" t="s">
         <v>758</v>
@@ -63116,25 +63116,25 @@
         <v>759</v>
       </c>
       <c r="CI85" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CJ85" t="s">
         <v>760</v>
       </c>
       <c r="CK85" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CL85" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CM85" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CN85" t="s">
         <v>761</v>
       </c>
       <c r="CO85" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="CP85" t="s">
         <v>761</v>
@@ -63146,7 +63146,7 @@
         <v>764</v>
       </c>
       <c r="CS85" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="CT85" t="s">
         <v>766</v>
@@ -63167,7 +63167,7 @@
         <v>769</v>
       </c>
       <c r="CZ85" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="DA85" t="s">
         <v>774</v>
@@ -63802,7 +63802,7 @@
         <v>756</v>
       </c>
       <c r="CF86" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CG86" t="s">
         <v>758</v>
@@ -63811,25 +63811,25 @@
         <v>759</v>
       </c>
       <c r="CI86" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CJ86" t="s">
         <v>760</v>
       </c>
       <c r="CK86" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CL86" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CM86" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CN86" t="s">
         <v>761</v>
       </c>
       <c r="CO86" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="CP86" t="s">
         <v>761</v>
@@ -63841,7 +63841,7 @@
         <v>764</v>
       </c>
       <c r="CS86" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="CT86" t="s">
         <v>766</v>
@@ -63862,7 +63862,7 @@
         <v>769</v>
       </c>
       <c r="CZ86" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="DA86" t="s">
         <v>774</v>
@@ -64497,7 +64497,7 @@
         <v>756</v>
       </c>
       <c r="CF87" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CG87" t="s">
         <v>758</v>
@@ -64506,25 +64506,25 @@
         <v>759</v>
       </c>
       <c r="CI87" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CJ87" t="s">
         <v>760</v>
       </c>
       <c r="CK87" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CL87" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CM87" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CN87" t="s">
         <v>761</v>
       </c>
       <c r="CO87" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="CP87" t="s">
         <v>761</v>
@@ -64536,7 +64536,7 @@
         <v>764</v>
       </c>
       <c r="CS87" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="CT87" t="s">
         <v>766</v>
@@ -64557,7 +64557,7 @@
         <v>769</v>
       </c>
       <c r="CZ87" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="DA87" t="s">
         <v>774</v>
@@ -65192,7 +65192,7 @@
         <v>756</v>
       </c>
       <c r="CF88" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CG88" t="s">
         <v>758</v>
@@ -65201,25 +65201,25 @@
         <v>759</v>
       </c>
       <c r="CI88" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CJ88" t="s">
         <v>760</v>
       </c>
       <c r="CK88" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CL88" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CM88" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CN88" t="s">
         <v>761</v>
       </c>
       <c r="CO88" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="CP88" t="s">
         <v>761</v>
@@ -65231,7 +65231,7 @@
         <v>764</v>
       </c>
       <c r="CS88" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="CT88" t="s">
         <v>766</v>
@@ -65252,7 +65252,7 @@
         <v>769</v>
       </c>
       <c r="CZ88" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="DA88" t="s">
         <v>774</v>
@@ -65887,7 +65887,7 @@
         <v>756</v>
       </c>
       <c r="CF89" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CG89" t="s">
         <v>758</v>
@@ -65896,25 +65896,25 @@
         <v>759</v>
       </c>
       <c r="CI89" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CJ89" t="s">
         <v>760</v>
       </c>
       <c r="CK89" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CL89" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CM89" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CN89" t="s">
         <v>761</v>
       </c>
       <c r="CO89" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="CP89" t="s">
         <v>761</v>
@@ -65926,7 +65926,7 @@
         <v>764</v>
       </c>
       <c r="CS89" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="CT89" t="s">
         <v>766</v>
@@ -65947,7 +65947,7 @@
         <v>769</v>
       </c>
       <c r="CZ89" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="DA89" t="s">
         <v>774</v>
@@ -66582,7 +66582,7 @@
         <v>756</v>
       </c>
       <c r="CF90" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CG90" t="s">
         <v>758</v>
@@ -66591,25 +66591,25 @@
         <v>759</v>
       </c>
       <c r="CI90" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CJ90" t="s">
         <v>760</v>
       </c>
       <c r="CK90" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CL90" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CM90" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CN90" t="s">
         <v>761</v>
       </c>
       <c r="CO90" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="CP90" t="s">
         <v>761</v>
@@ -66621,7 +66621,7 @@
         <v>764</v>
       </c>
       <c r="CS90" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="CT90" t="s">
         <v>766</v>
@@ -66642,7 +66642,7 @@
         <v>769</v>
       </c>
       <c r="CZ90" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="DA90" t="s">
         <v>774</v>
@@ -67277,7 +67277,7 @@
         <v>756</v>
       </c>
       <c r="CF91" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CG91" t="s">
         <v>758</v>
@@ -67286,25 +67286,25 @@
         <v>759</v>
       </c>
       <c r="CI91" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CJ91" t="s">
         <v>760</v>
       </c>
       <c r="CK91" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CL91" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CM91" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CN91" t="s">
         <v>761</v>
       </c>
       <c r="CO91" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="CP91" t="s">
         <v>761</v>
@@ -67316,7 +67316,7 @@
         <v>764</v>
       </c>
       <c r="CS91" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="CT91" t="s">
         <v>766</v>
@@ -67337,7 +67337,7 @@
         <v>769</v>
       </c>
       <c r="CZ91" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="DA91" t="s">
         <v>774</v>
@@ -67972,7 +67972,7 @@
         <v>756</v>
       </c>
       <c r="CF92" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CG92" t="s">
         <v>758</v>
@@ -67981,25 +67981,25 @@
         <v>759</v>
       </c>
       <c r="CI92" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CJ92" t="s">
         <v>760</v>
       </c>
       <c r="CK92" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CL92" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CM92" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CN92" t="s">
         <v>761</v>
       </c>
       <c r="CO92" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="CP92" t="s">
         <v>761</v>
@@ -68011,7 +68011,7 @@
         <v>764</v>
       </c>
       <c r="CS92" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="CT92" t="s">
         <v>766</v>
@@ -68032,7 +68032,7 @@
         <v>769</v>
       </c>
       <c r="CZ92" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="DA92" t="s">
         <v>774</v>
@@ -68667,7 +68667,7 @@
         <v>756</v>
       </c>
       <c r="CF93" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CG93" t="s">
         <v>758</v>
@@ -68676,25 +68676,25 @@
         <v>759</v>
       </c>
       <c r="CI93" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CJ93" t="s">
         <v>760</v>
       </c>
       <c r="CK93" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CL93" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CM93" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CN93" t="s">
         <v>761</v>
       </c>
       <c r="CO93" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="CP93" t="s">
         <v>761</v>
@@ -68706,7 +68706,7 @@
         <v>764</v>
       </c>
       <c r="CS93" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="CT93" t="s">
         <v>766</v>
@@ -68727,7 +68727,7 @@
         <v>769</v>
       </c>
       <c r="CZ93" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="DA93" t="s">
         <v>774</v>
@@ -69030,7 +69030,7 @@
         <v>962</v>
       </c>
       <c r="HS93" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="HT93" t="s">
         <v>747</v>
@@ -69362,7 +69362,7 @@
         <v>756</v>
       </c>
       <c r="CF94" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CG94" t="s">
         <v>758</v>
@@ -69371,25 +69371,25 @@
         <v>759</v>
       </c>
       <c r="CI94" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CJ94" t="s">
         <v>760</v>
       </c>
       <c r="CK94" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CL94" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CM94" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CN94" t="s">
         <v>761</v>
       </c>
       <c r="CO94" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="CP94" t="s">
         <v>761</v>
@@ -69401,7 +69401,7 @@
         <v>764</v>
       </c>
       <c r="CS94" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="CT94" t="s">
         <v>766</v>
@@ -69422,7 +69422,7 @@
         <v>769</v>
       </c>
       <c r="CZ94" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="DA94" t="s">
         <v>774</v>
@@ -69656,7 +69656,7 @@
         <v>895</v>
       </c>
       <c r="GL94" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="GM94" t="s">
         <v>747</v>
@@ -70057,7 +70057,7 @@
         <v>756</v>
       </c>
       <c r="CF95" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CG95" t="s">
         <v>758</v>
@@ -70066,25 +70066,25 @@
         <v>759</v>
       </c>
       <c r="CI95" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CJ95" t="s">
         <v>760</v>
       </c>
       <c r="CK95" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CL95" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CM95" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CN95" t="s">
         <v>761</v>
       </c>
       <c r="CO95" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="CP95" t="s">
         <v>761</v>
@@ -70096,7 +70096,7 @@
         <v>764</v>
       </c>
       <c r="CS95" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="CT95" t="s">
         <v>766</v>
@@ -70117,7 +70117,7 @@
         <v>769</v>
       </c>
       <c r="CZ95" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="DA95" t="s">
         <v>774</v>
@@ -70752,7 +70752,7 @@
         <v>756</v>
       </c>
       <c r="CF96" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CG96" t="s">
         <v>758</v>
@@ -70761,25 +70761,25 @@
         <v>759</v>
       </c>
       <c r="CI96" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CJ96" t="s">
         <v>760</v>
       </c>
       <c r="CK96" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CL96" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CM96" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CN96" t="s">
         <v>761</v>
       </c>
       <c r="CO96" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="CP96" t="s">
         <v>761</v>
@@ -70791,7 +70791,7 @@
         <v>764</v>
       </c>
       <c r="CS96" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="CT96" t="s">
         <v>766</v>
@@ -70812,7 +70812,7 @@
         <v>769</v>
       </c>
       <c r="CZ96" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="DA96" t="s">
         <v>774</v>
@@ -71447,7 +71447,7 @@
         <v>756</v>
       </c>
       <c r="CF97" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CG97" t="s">
         <v>758</v>
@@ -71456,25 +71456,25 @@
         <v>759</v>
       </c>
       <c r="CI97" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CJ97" t="s">
         <v>760</v>
       </c>
       <c r="CK97" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CL97" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CM97" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CN97" t="s">
         <v>761</v>
       </c>
       <c r="CO97" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="CP97" t="s">
         <v>761</v>
@@ -71486,7 +71486,7 @@
         <v>764</v>
       </c>
       <c r="CS97" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="CT97" t="s">
         <v>766</v>
@@ -71507,7 +71507,7 @@
         <v>769</v>
       </c>
       <c r="CZ97" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="DA97" t="s">
         <v>774</v>
@@ -72142,7 +72142,7 @@
         <v>756</v>
       </c>
       <c r="CF98" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CG98" t="s">
         <v>758</v>
@@ -72151,25 +72151,25 @@
         <v>759</v>
       </c>
       <c r="CI98" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CJ98" t="s">
         <v>760</v>
       </c>
       <c r="CK98" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CL98" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CM98" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CN98" t="s">
         <v>761</v>
       </c>
       <c r="CO98" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="CP98" t="s">
         <v>761</v>
@@ -72181,7 +72181,7 @@
         <v>764</v>
       </c>
       <c r="CS98" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="CT98" t="s">
         <v>766</v>
@@ -72202,7 +72202,7 @@
         <v>769</v>
       </c>
       <c r="CZ98" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="DA98" t="s">
         <v>774</v>
@@ -72837,7 +72837,7 @@
         <v>756</v>
       </c>
       <c r="CF99" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CG99" t="s">
         <v>758</v>
@@ -72846,25 +72846,25 @@
         <v>759</v>
       </c>
       <c r="CI99" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CJ99" t="s">
         <v>760</v>
       </c>
       <c r="CK99" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CL99" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CM99" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CN99" t="s">
         <v>761</v>
       </c>
       <c r="CO99" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="CP99" t="s">
         <v>761</v>
@@ -72876,7 +72876,7 @@
         <v>764</v>
       </c>
       <c r="CS99" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="CT99" t="s">
         <v>766</v>
@@ -72897,7 +72897,7 @@
         <v>769</v>
       </c>
       <c r="CZ99" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="DA99" t="s">
         <v>774</v>
@@ -73532,7 +73532,7 @@
         <v>756</v>
       </c>
       <c r="CF100" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CG100" t="s">
         <v>758</v>
@@ -73541,25 +73541,25 @@
         <v>759</v>
       </c>
       <c r="CI100" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CJ100" t="s">
         <v>760</v>
       </c>
       <c r="CK100" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CL100" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CM100" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CN100" t="s">
         <v>761</v>
       </c>
       <c r="CO100" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="CP100" t="s">
         <v>761</v>
@@ -73571,7 +73571,7 @@
         <v>764</v>
       </c>
       <c r="CS100" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="CT100" t="s">
         <v>766</v>
@@ -73592,7 +73592,7 @@
         <v>769</v>
       </c>
       <c r="CZ100" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="DA100" t="s">
         <v>774</v>
@@ -74227,7 +74227,7 @@
         <v>756</v>
       </c>
       <c r="CF101" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CG101" t="s">
         <v>758</v>
@@ -74236,25 +74236,25 @@
         <v>759</v>
       </c>
       <c r="CI101" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="CJ101" t="s">
         <v>760</v>
       </c>
       <c r="CK101" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="CL101" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="CM101" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="CN101" t="s">
         <v>761</v>
       </c>
       <c r="CO101" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="CP101" t="s">
         <v>761</v>
@@ -74266,7 +74266,7 @@
         <v>764</v>
       </c>
       <c r="CS101" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="CT101" t="s">
         <v>766</v>
@@ -74287,7 +74287,7 @@
         <v>769</v>
       </c>
       <c r="CZ101" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="DA101" t="s">
         <v>774</v>
